--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T23:28:48+00:00</t>
+    <t>2022-07-14T23:35:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T23:35:37+00:00</t>
+    <t>2022-07-15T00:31:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T00:31:00+00:00</t>
+    <t>2022-07-15T01:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T01:40:07+00:00</t>
+    <t>2022-07-15T03:58:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T03:58:01+00:00</t>
+    <t>2022-07-15T09:57:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T09:57:08+00:00</t>
+    <t>2022-07-18T23:59:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-18T23:59:16+00:00</t>
+    <t>2022-07-19T02:14:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-19T02:14:28+00:00</t>
+    <t>2022-07-19T08:05:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-19T08:05:59+00:00</t>
+    <t>2022-07-20T22:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T22:47:26+00:00</t>
+    <t>2022-07-21T02:38:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-21T02:38:40+00:00</t>
+    <t>2022-07-22T12:50:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-22T12:50:03+00:00</t>
+    <t>2022-07-25T13:41:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -510,7 +510,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRequest|http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRequest_Injection|NutritionOrder|ServiceRequest)
 </t>
   </si>
   <si>
@@ -540,7 +540,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationAdministration|http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationAdministration_Injection|http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationDispenseBase|MedicationStatement|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Procedure|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Immunization|ImagingStudy)
 </t>
   </si>
   <si>
@@ -762,7 +762,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Encounter)
 </t>
   </si>
   <si>
@@ -862,7 +862,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization|CareTeam|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -1435,7 +1435,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_PhysicalExam)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_Common|QuestionnaireResponse|MolecularSequence|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_PhysicalExam)
 </t>
   </si>
   <si>
@@ -1460,7 +1460,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_PhysicalExam)
+    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_Common|MolecularSequence|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_PhysicalExam)
 </t>
   </si>
   <si>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T13:41:20+00:00</t>
+    <t>2022-07-26T13:48:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:48:24+00:00</t>
+    <t>2022-07-29T00:48:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-29T00:48:21+00:00</t>
+    <t>2022-08-01T01:14:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T01:14:07+00:00</t>
+    <t>2022-08-01T09:08:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:08:31+00:00</t>
+    <t>2022-08-01T10:54:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="454">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T10:54:34+00:00</t>
+    <t>2022-08-03T00:30:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -548,7 +548,7 @@
   </si>
   <si>
     <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.
-この特定のObservationが別のより大きなイベントの要素あるいは一段階であるような親イベント。たとえば、一連の処置手順の一部としてのObservation.</t>
+この特定のObservationが別のより大きなイベントの要素あるいは一段階であるような親イベント。たとえば、一連の処置手順の一部としてのObservation。</t>
   </si>
   <si>
     <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](observation.html#obsgrouping) below for guidance on referencing another Observation.
@@ -1044,12 +1044,7 @@
 観察が行われた被験者の体の部位（すなわち、標的部位）を示す。</t>
   </si>
   <si>
-    <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
-If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](extension-bodysite.html).
-【JP仕様】&lt;br/&gt;
-外保連の手術基幹コード（STEM7）の操作対象部位を基にバリューセットを定義する&lt;br/&gt;
-左右の区別は拡張で表現する&lt;br/&gt;
-具体的なコードについてはSWG6と連携して決定する必要がある（TBD）</t>
+    <t>ICD-11</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/ValueSet/observation-bodySite</t>
@@ -1065,105 +1060,6 @@
   </si>
   <si>
     <t>718497002 |Inherent location|</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>bodySitePosition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Observation_BodySite_BodySitePosition}
-</t>
-  </si>
-  <si>
-    <t>部位（bodySite）の左右の区別を表現する際に使用する</t>
-  </si>
-  <si>
-    <t>左右の区別を表現する際に使用する</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Observation.method</t>
@@ -1289,7 +1185,25 @@
     <t>Observation.referenceRange.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Observation.referenceRange.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>Observation.referenceRange.modifierExtension</t>
@@ -1903,7 +1817,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO56"/>
+  <dimension ref="A1:AO51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1913,7 +1827,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.30078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1939,7 +1853,7 @@
     <col min="25" max="25" width="59.80078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
@@ -5165,7 +5079,7 @@
         <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>321</v>
@@ -5173,8 +5087,12 @@
       <c r="L28" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="M28" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>81</v>
       </c>
@@ -5198,13 +5116,11 @@
         <v>81</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="X28" s="2"/>
       <c r="Y28" t="s" s="2">
-        <v>81</v>
+        <v>325</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>81</v>
@@ -5222,7 +5138,7 @@
         <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -5234,7 +5150,7 @@
         <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>81</v>
@@ -5243,10 +5159,10 @@
         <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>81</v>
+        <v>326</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
@@ -5257,18 +5173,18 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>81</v>
@@ -5280,16 +5196,16 @@
         <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>137</v>
+        <v>329</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>138</v>
+        <v>330</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>140</v>
+        <v>332</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5327,58 +5243,56 @@
         <v>81</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>327</v>
+        <v>81</v>
       </c>
       <c r="AB29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AC29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>330</v>
-      </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>81</v>
+        <v>333</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>81</v>
+        <v>334</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>81</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>81</v>
       </c>
@@ -5387,7 +5301,7 @@
         <v>79</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>81</v>
@@ -5399,16 +5313,16 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5458,42 +5372,42 @@
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>81</v>
+        <v>342</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>81</v>
+        <v>343</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>81</v>
+        <v>344</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>81</v>
+        <v>345</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5513,22 +5427,22 @@
         <v>81</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>81</v>
@@ -5577,7 +5491,7 @@
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
@@ -5589,7 +5503,7 @@
         <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>103</v>
+        <v>352</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>81</v>
@@ -5598,10 +5512,10 @@
         <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
@@ -5612,7 +5526,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5632,23 +5546,19 @@
         <v>81</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>81</v>
       </c>
@@ -5696,7 +5606,7 @@
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
@@ -5708,7 +5618,7 @@
         <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>81</v>
@@ -5717,10 +5627,10 @@
         <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>350</v>
+        <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -5731,18 +5641,18 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>81</v>
@@ -5754,20 +5664,18 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>353</v>
+        <v>138</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>81</v>
       </c>
@@ -5791,11 +5699,13 @@
         <v>81</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="X33" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Y33" t="s" s="2">
-        <v>357</v>
+        <v>81</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>81</v>
@@ -5813,19 +5723,19 @@
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>81</v>
@@ -5834,7 +5744,7 @@
         <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>358</v>
+        <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>359</v>
@@ -5848,41 +5758,43 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>81</v>
+        <v>364</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>361</v>
+        <v>137</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>81</v>
       </c>
@@ -5930,42 +5842,42 @@
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>365</v>
+        <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>366</v>
+        <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>367</v>
+        <v>134</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>368</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5988,17 +5900,15 @@
         <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>373</v>
-      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>81</v>
@@ -6047,7 +5957,7 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -6056,7 +5966,7 @@
         <v>91</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>81</v>
+        <v>372</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>103</v>
@@ -6065,24 +5975,24 @@
         <v>81</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AL35" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>377</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6093,7 +6003,7 @@
         <v>79</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>81</v>
@@ -6105,20 +6015,16 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>81</v>
       </c>
@@ -6166,31 +6072,31 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6201,7 +6107,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6224,16 +6130,20 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>321</v>
+        <v>380</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>81</v>
       </c>
@@ -6257,13 +6167,13 @@
         <v>81</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>81</v>
+        <v>384</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>81</v>
+        <v>385</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>81</v>
@@ -6281,7 +6191,7 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>323</v>
+        <v>379</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6293,19 +6203,19 @@
         <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>81</v>
+        <v>386</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>81</v>
+        <v>387</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6320,7 +6230,7 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6339,18 +6249,20 @@
         <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>138</v>
+        <v>389</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>326</v>
+        <v>390</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>81</v>
       </c>
@@ -6374,13 +6286,13 @@
         <v>81</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>81</v>
+        <v>393</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>81</v>
+        <v>394</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>81</v>
+        <v>395</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>81</v>
@@ -6398,7 +6310,7 @@
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>330</v>
+        <v>388</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -6410,19 +6322,19 @@
         <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>81</v>
+        <v>386</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>81</v>
+        <v>387</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6433,42 +6345,40 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>390</v>
+        <v>81</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>137</v>
+        <v>397</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>146</v>
+        <v>400</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>81</v>
@@ -6517,19 +6427,19 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>81</v>
@@ -6541,7 +6451,7 @@
         <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>134</v>
+        <v>401</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6552,7 +6462,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6575,13 +6485,13 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>395</v>
+        <v>93</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6632,7 +6542,7 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -6641,7 +6551,7 @@
         <v>91</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>398</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>103</v>
@@ -6653,10 +6563,10 @@
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>399</v>
+        <v>373</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6667,7 +6577,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6678,7 +6588,7 @@
         <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>81</v>
@@ -6687,18 +6597,20 @@
         <v>81</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>81</v>
@@ -6747,16 +6659,16 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>398</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>103</v>
@@ -6768,10 +6680,10 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6782,7 +6694,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6793,7 +6705,7 @@
         <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>81</v>
@@ -6802,23 +6714,21 @@
         <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>189</v>
+        <v>414</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>81</v>
       </c>
@@ -6842,13 +6752,13 @@
         <v>81</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>410</v>
+        <v>81</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>411</v>
+        <v>81</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>81</v>
@@ -6866,13 +6776,13 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>81</v>
@@ -6884,13 +6794,13 @@
         <v>81</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>412</v>
+        <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>301</v>
+        <v>418</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6901,7 +6811,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6921,22 +6831,22 @@
         <v>81</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>189</v>
+        <v>347</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>81</v>
@@ -6961,31 +6871,31 @@
         <v>81</v>
       </c>
       <c r="W43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE43" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -7003,13 +6913,13 @@
         <v>81</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>412</v>
+        <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>301</v>
+        <v>425</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -7020,7 +6930,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7043,18 +6953,16 @@
         <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>423</v>
+        <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>424</v>
+        <v>356</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>425</v>
+        <v>357</v>
       </c>
       <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>426</v>
-      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>81</v>
       </c>
@@ -7102,7 +7010,7 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>422</v>
+        <v>358</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -7114,7 +7022,7 @@
         <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>81</v>
@@ -7126,7 +7034,7 @@
         <v>81</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>427</v>
+        <v>359</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7137,18 +7045,18 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>81</v>
@@ -7160,15 +7068,17 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>429</v>
+        <v>138</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>81</v>
@@ -7217,19 +7127,19 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>428</v>
+        <v>362</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>81</v>
@@ -7238,10 +7148,10 @@
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>399</v>
+        <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>431</v>
+        <v>359</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7252,11 +7162,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>81</v>
+        <v>364</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7269,24 +7179,26 @@
         <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>92</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>433</v>
+        <v>137</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>434</v>
+        <v>365</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>435</v>
+        <v>366</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>81</v>
       </c>
@@ -7334,7 +7246,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>432</v>
+        <v>367</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7346,7 +7258,7 @@
         <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>81</v>
@@ -7355,10 +7267,10 @@
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>437</v>
+        <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>438</v>
+        <v>134</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7369,7 +7281,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7377,10 +7289,10 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>81</v>
@@ -7392,24 +7304,26 @@
         <v>92</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>440</v>
+        <v>189</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>81</v>
+        <v>433</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>81</v>
@@ -7427,13 +7341,11 @@
         <v>81</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="X47" s="2"/>
       <c r="Y47" t="s" s="2">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>81</v>
@@ -7451,13 +7363,13 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>81</v>
@@ -7469,16 +7381,16 @@
         <v>81</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>81</v>
+        <v>434</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>437</v>
+        <v>209</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>444</v>
+        <v>210</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>81</v>
@@ -7486,7 +7398,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7497,7 +7409,7 @@
         <v>79</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>81</v>
@@ -7509,19 +7421,19 @@
         <v>92</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>379</v>
+        <v>436</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>449</v>
+        <v>273</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>81</v>
@@ -7570,13 +7482,13 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>81</v>
@@ -7588,24 +7500,24 @@
         <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>81</v>
+        <v>440</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>450</v>
+        <v>278</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>451</v>
+        <v>279</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>81</v>
+        <v>280</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7628,16 +7540,20 @@
         <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>321</v>
+        <v>442</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>81</v>
       </c>
@@ -7661,13 +7577,13 @@
         <v>81</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>81</v>
+        <v>287</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>81</v>
+        <v>288</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>81</v>
@@ -7685,7 +7601,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>323</v>
+        <v>441</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -7694,10 +7610,10 @@
         <v>91</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>81</v>
@@ -7706,10 +7622,10 @@
         <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
@@ -7720,11 +7636,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>136</v>
+        <v>292</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7743,18 +7659,20 @@
         <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>138</v>
+        <v>293</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>326</v>
+        <v>446</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>81</v>
       </c>
@@ -7778,13 +7696,13 @@
         <v>81</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>81</v>
+        <v>297</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>81</v>
@@ -7802,7 +7720,7 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>330</v>
+        <v>445</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -7814,34 +7732,34 @@
         <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>81</v>
+        <v>299</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>81</v>
+        <v>300</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>81</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>390</v>
+        <v>81</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7854,25 +7772,25 @@
         <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>391</v>
+        <v>450</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>392</v>
+        <v>451</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>140</v>
+        <v>452</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>146</v>
+        <v>453</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>81</v>
@@ -7921,7 +7839,7 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>393</v>
+        <v>449</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -7933,7 +7851,7 @@
         <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>81</v>
@@ -7942,608 +7860,15 @@
         <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>81</v>
+        <v>353</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>134</v>
+        <v>354</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="F52" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="R52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X52" s="2"/>
-      <c r="Y52" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F53" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO56" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T00:30:07+00:00</t>
+    <t>2022-08-03T13:55:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T13:55:30+00:00</t>
+    <t>2022-08-06T07:57:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-06T07:57:57+00:00</t>
+    <t>2022-08-06T08:15:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-06T08:15:13+00:00</t>
+    <t>2022-08-08T12:51:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="458">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T12:51:35+00:00</t>
+    <t>2022-08-15T09:08:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -611,7 +611,7 @@
 </t>
   </si>
   <si>
-    <t>Classification of  type of observation　Obserbationの種類（タイプ）の分類</t>
+    <t>Classification of  type of observation　Observationの種類（タイプ）の分類</t>
   </si>
   <si>
     <t>A code that classifies the general type of observation being made.
@@ -619,34 +619,46 @@
   </si>
   <si>
     <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.
-【JP仕様】&lt;br/&gt;
-基底仕様のカテゴリ「exam」固定とする</t>
+【JP-Core仕様】基底仕様のカテゴリ「exam」固定とする</t>
   </si>
   <si>
     <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:$this}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>exam</t>
+  </si>
+  <si>
+    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.
+必要なカテゴリ値セットに加えて、この要素を使用すると、所有者のカテゴリの定義に基づいたさまざまなカテゴリ化スキームが可能になり、複数のカテゴリを一度に効果的に使用できる。粒度のレベルは、値セットのカテゴリの概念によって定義される。</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
     &lt;code value="exam"/&gt;
-    &lt;display value="Exam"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
     <t>Observation.code</t>
   </si>
   <si>
@@ -662,8 +674,7 @@
   </si>
   <si>
     <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.
-【JP仕様】&lt;br/&gt;
-所見の有無を表すコード（固定値）</t>
+【JP-Core仕様】所見の有無を表すコード（固定値）</t>
   </si>
   <si>
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
@@ -715,8 +726,7 @@
   </si>
   <si>
     <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.
-【JP仕様】&lt;br/&gt;
-患者</t>
+【JP-Core仕様】患者</t>
   </si>
   <si>
     <t>Observations have no value if you don't know who or what they're about.</t>
@@ -749,7 +759,7 @@
   </si>
   <si>
     <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](extension-observation-focuscode.html).
-通常、observationは対象（患者、または患者のグループ、場所、またはデバイス）について行われ、対象とobservationのために直接測定されるものとの区別は、observationコード自体（例：「血糖値」 ）で記述され、この要素を使用して個別に表す必要はない。検体（標本）への参照が必要な場合は、 `specimin`要素を使用する。リソースの代わりにコードが必要な場合は、人体部位には`bodysite`要素を使用するか、標準の拡張機能[focusCode]（extension-observation-focuscode.html）を使用する。</t>
+通常、observationは対象（患者、または患者のグループ、場所、またはデバイス）について行われ、対象とobservationのために直接測定されるものとの区別は、observationコード自体（例：「血糖値」 ）で記述され、この要素を使用して個別に表す必要はない。検体（標本）への参照が必要な場合は、 `specimen`要素を使用する。リソースの代わりにコードが必要な場合は、人体部位には`bodysite`要素を使用するか、標準の拡張機能[focusCode]（extension-observation-focuscode.html）を使用する。</t>
   </si>
   <si>
     <t>participation[typeCode=SBJ]</t>
@@ -774,8 +784,7 @@
   </si>
   <si>
     <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).
-【JP仕様】&lt;br/&gt;
-診察</t>
+【JP-Core仕様】診察</t>
   </si>
   <si>
     <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
@@ -812,8 +821,7 @@
   </si>
   <si>
     <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.
-【JP仕様】&lt;br/&gt;
-effectiveDateTime：医療者が確認した日時&lt;br/&gt;
+【JP-Core仕様】effectiveDateTime：医療者が確認した日時
 effectivePeriod：医療者が確認した期間</t>
   </si>
   <si>
@@ -873,7 +881,7 @@
 そのobservationは真だと言える責任者</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>
@@ -903,8 +911,7 @@
   </si>
   <si>
     <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](observation.html#notes) below.
-【JP仕様】&lt;br/&gt;
-コードに限定する</t>
+【JP-Core仕様】コードに限定する</t>
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
@@ -1047,7 +1054,7 @@
     <t>ICD-11</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/observation-bodySite</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ObservationPhysicalExamBodySite_VS</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1072,17 +1079,14 @@
 観測を実行するために使用されるメカニズムを示す。</t>
   </si>
   <si>
-    <t>Only used if not implicit in code for Observation.code.
-【JP仕様】&lt;br/&gt;
-症状・所見マスターの「診察方法」を基にバリューセットを定義する&lt;br/&gt;
-具体的なコードについてはSWG6と連携して決定する必要がある（TBD）</t>
+    <t>MEDIS症状・所見マスターの「診察方法」</t>
   </si>
   <si>
     <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.
 場合によっては、観察（観測・検査）方法によっては結果に影響を与える可能性があるため、結果を比較できるかどうかを判断したり、結果の重要性を判断したりするために使用される。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/observation-method</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ObservationPhysicalExamMethod_VS</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1357,12 +1361,11 @@
   </si>
   <si>
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.
-このobserbationは、グループのメンバーとしてターゲットを含むグループobserbation（たとえば、一連検査セット、パネル検査、バイタルサイン測定値のセット）である。</t>
+このobservationは、グループのメンバーとしてターゲットを含むグループobservation（たとえば、一連検査セット、パネル検査、バイタルサイン測定値のセット）である。</t>
   </si>
   <si>
     <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.
-【JP仕様】&lt;br/&gt;
-関連する参照リソースにJP_Observation_PhysicalExamを追加</t>
+【JP-Core仕様】関連する参照リソースにJP_Observation_PhysicalExamを追加</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -1386,8 +1389,7 @@
   </si>
   <si>
     <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.
-【JP仕様】&lt;br/&gt;
-導出元の参照リソースにJP_Observation_PhysicalExamを追加</t>
+【JP-Core仕様】導出元の参照リソースにJP_Observation_PhysicalExamを追加</t>
   </si>
   <si>
     <t>.targetObservation</t>
@@ -1404,8 +1406,7 @@
   </si>
   <si>
     <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](observation.html#notes) below.
-【JP仕様】&lt;br/&gt;
-具体的な所見を記載する</t>
+【JP-Core仕様】具体的な所見を記載する</t>
   </si>
   <si>
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.
@@ -1437,8 +1438,7 @@
   </si>
   <si>
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.
-【JP仕様】&lt;br/&gt;
-具体的な所見を表すコード（固定値）</t>
+【JP-Core仕様】具体的な所見を表すコード（固定値）</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1817,7 +1817,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO51"/>
+  <dimension ref="A1:AO52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1850,7 +1850,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="92.58984375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="59.80078125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="73.46484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
@@ -3530,7 +3530,7 @@
         <v>91</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>81</v>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="R15" t="s" s="2">
         <v>81</v>
@@ -3582,25 +3582,23 @@
         <v>115</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA15" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>81</v>
-      </c>
+      <c r="AB15" s="2"/>
       <c r="AC15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>188</v>
@@ -3627,10 +3625,10 @@
         <v>81</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>81</v>
@@ -3638,11 +3636,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="C16" t="s" s="2">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3658,32 +3658,32 @@
         <v>81</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>189</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>203</v>
-      </c>
       <c r="N16" t="s" s="2">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>81</v>
@@ -3698,11 +3698,13 @@
         <v>81</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X16" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="Y16" t="s" s="2">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>81</v>
@@ -3720,13 +3722,13 @@
         <v>81</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>81</v>
@@ -3735,31 +3737,31 @@
         <v>103</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>212</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>81</v>
+        <v>204</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3778,26 +3780,26 @@
         <v>92</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="R17" t="s" s="2">
         <v>81</v>
@@ -3815,13 +3817,11 @@
         <v>81</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>81</v>
@@ -3839,10 +3839,10 @@
         <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>91</v>
@@ -3854,27 +3854,27 @@
         <v>103</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>81</v>
+        <v>212</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>81</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3882,10 +3882,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>81</v>
@@ -3897,18 +3897,20 @@
         <v>92</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>81</v>
       </c>
@@ -3956,13 +3958,13 @@
         <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>81</v>
@@ -3971,19 +3973,19 @@
         <v>103</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>81</v>
+        <v>223</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>81</v>
@@ -3991,18 +3993,18 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>230</v>
+        <v>81</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>81</v>
@@ -4014,20 +4016,18 @@
         <v>92</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K19" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>235</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>81</v>
       </c>
@@ -4075,13 +4075,13 @@
         <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>81</v>
@@ -4090,19 +4090,19 @@
         <v>103</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>236</v>
+        <v>81</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>81</v>
@@ -4110,11 +4110,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4133,19 +4133,19 @@
         <v>92</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>81</v>
@@ -4194,7 +4194,7 @@
         <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>79</v>
@@ -4209,19 +4209,19 @@
         <v>103</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>81</v>
@@ -4229,11 +4229,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>81</v>
+        <v>245</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4252,18 +4252,20 @@
         <v>92</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>81</v>
       </c>
@@ -4311,7 +4313,7 @@
         <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>79</v>
@@ -4326,19 +4328,19 @@
         <v>103</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>81</v>
@@ -4346,7 +4348,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4357,7 +4359,7 @@
         <v>79</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>81</v>
@@ -4369,20 +4371,18 @@
         <v>92</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>81</v>
       </c>
@@ -4430,13 +4430,13 @@
         <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>81</v>
@@ -4445,19 +4445,19 @@
         <v>103</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>81</v>
@@ -4465,7 +4465,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4476,7 +4476,7 @@
         <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>81</v>
@@ -4488,19 +4488,19 @@
         <v>92</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>189</v>
+        <v>264</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>81</v>
@@ -4525,13 +4525,13 @@
         <v>81</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>274</v>
+        <v>81</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>275</v>
+        <v>81</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>81</v>
@@ -4549,42 +4549,42 @@
         <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>81</v>
+        <v>269</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>277</v>
+        <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>81</v>
+        <v>272</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>280</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4604,22 +4604,22 @@
         <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>189</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>81</v>
@@ -4644,13 +4644,13 @@
         <v>81</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>286</v>
+        <v>180</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>81</v>
@@ -4668,7 +4668,7 @@
         <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>79</v>
@@ -4677,7 +4677,7 @@
         <v>91</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>103</v>
@@ -4686,35 +4686,35 @@
         <v>81</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>81</v>
+        <v>281</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>134</v>
+        <v>282</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>81</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>292</v>
+        <v>81</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>81</v>
@@ -4729,16 +4729,16 @@
         <v>189</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>81</v>
@@ -4763,13 +4763,13 @@
         <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>81</v>
@@ -4787,16 +4787,16 @@
         <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>81</v>
+        <v>293</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>103</v>
@@ -4805,28 +4805,28 @@
         <v>81</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>299</v>
+        <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>300</v>
+        <v>134</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>302</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>81</v>
+        <v>296</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4845,19 +4845,19 @@
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>81</v>
@@ -4882,13 +4882,13 @@
         <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>81</v>
+        <v>290</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>81</v>
+        <v>302</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>81</v>
@@ -4906,7 +4906,7 @@
         <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
@@ -4924,24 +4924,24 @@
         <v>81</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>81</v>
+        <v>303</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>81</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4952,7 +4952,7 @@
         <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>81</v>
@@ -4964,18 +4964,20 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>189</v>
+        <v>308</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>81</v>
       </c>
@@ -4999,11 +5001,13 @@
         <v>81</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="X27" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Y27" t="s" s="2">
-        <v>315</v>
+        <v>81</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>81</v>
@@ -5021,13 +5025,13 @@
         <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>81</v>
@@ -5039,24 +5043,24 @@
         <v>81</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>316</v>
+        <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>319</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5082,17 +5086,15 @@
         <v>189</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>81</v>
       </c>
@@ -5120,7 +5122,7 @@
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>81</v>
@@ -5138,7 +5140,7 @@
         <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -5156,24 +5158,24 @@
         <v>81</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>81</v>
+        <v>320</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>81</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5196,18 +5198,20 @@
         <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>329</v>
+        <v>189</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>81</v>
       </c>
@@ -5231,13 +5235,11 @@
         <v>81</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>81</v>
+        <v>329</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>81</v>
@@ -5255,7 +5257,7 @@
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
@@ -5273,24 +5275,24 @@
         <v>81</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>333</v>
+        <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>336</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5313,16 +5315,16 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5372,7 +5374,7 @@
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
@@ -5390,24 +5392,24 @@
         <v>81</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5418,7 +5420,7 @@
         <v>79</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>81</v>
@@ -5430,20 +5432,18 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>81</v>
       </c>
@@ -5491,42 +5491,42 @@
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AF31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AL31" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>81</v>
+        <v>349</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5537,7 +5537,7 @@
         <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>81</v>
@@ -5549,16 +5549,20 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>93</v>
+        <v>351</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>81</v>
       </c>
@@ -5606,31 +5610,31 @@
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -5641,18 +5645,18 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>81</v>
@@ -5664,17 +5668,15 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>138</v>
+        <v>360</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>140</v>
-      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>81</v>
@@ -5729,13 +5731,13 @@
         <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>81</v>
@@ -5747,7 +5749,7 @@
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -5758,11 +5760,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>364</v>
+        <v>136</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5775,26 +5777,24 @@
         <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>137</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="N34" t="s" s="2">
-        <v>146</v>
-      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>81</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -5866,7 +5866,7 @@
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>134</v>
+        <v>363</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -5877,39 +5877,43 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>81</v>
+        <v>368</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+      <c r="M35" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>81</v>
       </c>
@@ -5957,19 +5961,19 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>372</v>
+        <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>81</v>
@@ -5978,10 +5982,10 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>373</v>
+        <v>81</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>374</v>
+        <v>134</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -5992,7 +5996,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6015,13 +6019,13 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6072,7 +6076,7 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6081,7 +6085,7 @@
         <v>91</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>103</v>
@@ -6093,7 +6097,7 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>378</v>
@@ -6130,7 +6134,7 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>189</v>
+        <v>373</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>380</v>
@@ -6138,12 +6142,8 @@
       <c r="L37" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>383</v>
-      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>81</v>
       </c>
@@ -6167,13 +6167,13 @@
         <v>81</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>384</v>
+        <v>81</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>385</v>
+        <v>81</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>81</v>
@@ -6200,7 +6200,7 @@
         <v>91</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>81</v>
+        <v>376</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>103</v>
@@ -6209,13 +6209,13 @@
         <v>81</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>386</v>
+        <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>301</v>
+        <v>382</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6226,7 +6226,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6237,7 +6237,7 @@
         <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>81</v>
@@ -6252,16 +6252,16 @@
         <v>189</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>81</v>
@@ -6286,13 +6286,13 @@
         <v>81</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>393</v>
+        <v>115</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>81</v>
@@ -6310,13 +6310,13 @@
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>81</v>
@@ -6328,13 +6328,13 @@
         <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6345,7 +6345,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6356,7 +6356,7 @@
         <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>81</v>
@@ -6368,17 +6368,19 @@
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>397</v>
+        <v>189</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="N39" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>81</v>
@@ -6403,13 +6405,13 @@
         <v>81</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>81</v>
+        <v>397</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>81</v>
+        <v>398</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>81</v>
+        <v>399</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>81</v>
@@ -6427,13 +6429,13 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>81</v>
@@ -6445,13 +6447,13 @@
         <v>81</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>81</v>
+        <v>390</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>81</v>
+        <v>391</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>401</v>
+        <v>305</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6462,7 +6464,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6485,16 +6487,18 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>93</v>
+        <v>401</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" s="2"/>
+      <c r="N40" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>81</v>
       </c>
@@ -6542,7 +6546,7 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -6563,7 +6567,7 @@
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>373</v>
+        <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>405</v>
@@ -6588,7 +6592,7 @@
         <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>81</v>
@@ -6597,20 +6601,18 @@
         <v>81</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="L41" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>410</v>
-      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>81</v>
@@ -6665,7 +6667,7 @@
         <v>79</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>81</v>
@@ -6680,10 +6682,10 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6694,7 +6696,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6717,16 +6719,16 @@
         <v>92</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6776,7 +6778,7 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
@@ -6797,10 +6799,10 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6811,7 +6813,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6834,20 +6836,18 @@
         <v>92</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>347</v>
+        <v>418</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="M43" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>423</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>81</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -6916,10 +6916,10 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -6930,7 +6930,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6941,7 +6941,7 @@
         <v>79</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>81</v>
@@ -6950,19 +6950,23 @@
         <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>93</v>
+        <v>351</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>356</v>
+        <v>424</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>81</v>
       </c>
@@ -7010,19 +7014,19 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>358</v>
+        <v>423</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>81</v>
@@ -7031,10 +7035,10 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>81</v>
+        <v>428</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>359</v>
+        <v>429</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7045,18 +7049,18 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>81</v>
@@ -7068,17 +7072,15 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>138</v>
+        <v>360</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>140</v>
-      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>81</v>
@@ -7133,13 +7135,13 @@
         <v>79</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>81</v>
@@ -7151,7 +7153,7 @@
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7162,11 +7164,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>364</v>
+        <v>136</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7179,26 +7181,24 @@
         <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>137</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="N46" t="s" s="2">
-        <v>146</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>81</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7270,7 +7270,7 @@
         <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>134</v>
+        <v>363</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7281,49 +7281,49 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>81</v>
+        <v>368</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>92</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>430</v>
+        <v>369</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>431</v>
+        <v>370</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>432</v>
+        <v>140</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>433</v>
+        <v>81</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>81</v>
@@ -7341,11 +7341,13 @@
         <v>81</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X47" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Y47" t="s" s="2">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>81</v>
@@ -7363,34 +7365,34 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>429</v>
+        <v>371</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>434</v>
+        <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>210</v>
+        <v>134</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>81</v>
@@ -7398,7 +7400,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7406,7 +7408,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>91</v>
@@ -7421,26 +7423,26 @@
         <v>92</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="K48" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>439</v>
-      </c>
       <c r="N48" t="s" s="2">
-        <v>273</v>
+        <v>208</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>81</v>
+        <v>437</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>81</v>
@@ -7458,13 +7460,11 @@
         <v>81</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="X48" s="2"/>
       <c r="Y48" t="s" s="2">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>81</v>
@@ -7482,10 +7482,10 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>91</v>
@@ -7500,24 +7500,24 @@
         <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>278</v>
+        <v>213</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>279</v>
+        <v>214</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>280</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7537,22 +7537,22 @@
         <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>189</v>
+        <v>440</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>444</v>
-      </c>
       <c r="N49" t="s" s="2">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>81</v>
@@ -7577,13 +7577,13 @@
         <v>81</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>286</v>
+        <v>81</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>287</v>
+        <v>81</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>288</v>
+        <v>81</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>81</v>
@@ -7601,7 +7601,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -7610,7 +7610,7 @@
         <v>91</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>289</v>
+        <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>103</v>
@@ -7619,19 +7619,19 @@
         <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>81</v>
+        <v>444</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>134</v>
+        <v>282</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>81</v>
+        <v>284</v>
       </c>
     </row>
     <row r="50">
@@ -7640,14 +7640,14 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>292</v>
+        <v>81</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>81</v>
@@ -7662,16 +7662,16 @@
         <v>189</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>293</v>
+        <v>446</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>448</v>
+        <v>289</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>81</v>
@@ -7696,13 +7696,13 @@
         <v>81</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>81</v>
@@ -7726,10 +7726,10 @@
         <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>293</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>103</v>
@@ -7738,19 +7738,19 @@
         <v>81</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>299</v>
+        <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>300</v>
+        <v>134</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>302</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51">
@@ -7759,7 +7759,7 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>81</v>
+        <v>296</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7778,19 +7778,19 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>81</v>
@@ -7815,13 +7815,13 @@
         <v>81</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>81</v>
+        <v>290</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>81</v>
+        <v>302</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>81</v>
@@ -7857,18 +7857,137 @@
         <v>81</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>81</v>
+        <v>303</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>353</v>
+        <v>304</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>354</v>
+        <v>305</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO51" t="s" s="2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO52" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T09:08:26+00:00</t>
+    <t>2022-08-17T12:11:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-17T12:11:07+00:00</t>
+    <t>2022-08-29T14:36:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -619,7 +619,7 @@
   </si>
   <si>
     <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.
-【JP-Core仕様】基底仕様のカテゴリ「exam」固定とする</t>
+【JP Core仕様】基底仕様のカテゴリ「exam」固定とする</t>
   </si>
   <si>
     <t>Used for filtering what observations are retrieved and displayed.</t>
@@ -674,7 +674,7 @@
   </si>
   <si>
     <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.
-【JP-Core仕様】所見の有無を表すコード（固定値）</t>
+【JP Core仕様】所見の有無を表すコード（固定値）</t>
   </si>
   <si>
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
@@ -682,14 +682,14 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://jpfhir.jp/fhir/Common/CodeSystem/JP_PhysicalExamCodes_CS"/&gt;
+    &lt;system value="http://jpfhir.jp/fhir/Common/CodeSystem/JP_PhysicalExamCode_CS"/&gt;
     &lt;code value="physical-findings"/&gt;
     &lt;display value="Physical Findings"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_PhysicalExamCodes_VS</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_PhysicalExamCode_VS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -726,7 +726,7 @@
   </si>
   <si>
     <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.
-【JP-Core仕様】患者</t>
+【JP Core仕様】患者</t>
   </si>
   <si>
     <t>Observations have no value if you don't know who or what they're about.</t>
@@ -784,7 +784,7 @@
   </si>
   <si>
     <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).
-【JP-Core仕様】診察</t>
+【JP Core仕様】診察</t>
   </si>
   <si>
     <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
@@ -821,7 +821,7 @@
   </si>
   <si>
     <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.
-【JP-Core仕様】effectiveDateTime：医療者が確認した日時
+【JP Core仕様】effectiveDateTime：医療者が確認した日時
 effectivePeriod：医療者が確認した期間</t>
   </si>
   <si>
@@ -911,7 +911,7 @@
   </si>
   <si>
     <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](observation.html#notes) below.
-【JP-Core仕様】コードに限定する</t>
+【JP Core仕様】コードに限定する</t>
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
@@ -1365,7 +1365,7 @@
   </si>
   <si>
     <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.
-【JP-Core仕様】関連する参照リソースにJP_Observation_PhysicalExamを追加</t>
+【JP Core仕様】関連する参照リソースにJP_Observation_PhysicalExamを追加</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -1389,7 +1389,7 @@
   </si>
   <si>
     <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.
-【JP-Core仕様】導出元の参照リソースにJP_Observation_PhysicalExamを追加</t>
+【JP Core仕様】導出元の参照リソースにJP_Observation_PhysicalExamを追加</t>
   </si>
   <si>
     <t>.targetObservation</t>
@@ -1406,7 +1406,7 @@
   </si>
   <si>
     <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](observation.html#notes) below.
-【JP-Core仕様】具体的な所見を記載する</t>
+【JP Core仕様】具体的な所見を記載する</t>
   </si>
   <si>
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.
@@ -1438,12 +1438,12 @@
   </si>
   <si>
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.
-【JP-Core仕様】具体的な所見を表すコード（固定値）</t>
+【JP Core仕様】具体的な所見を表すコード（固定値）</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://jpfhir.jp/fhir/Common/CodeSystem/JP_PhysicalExamCodes_CS"/&gt;
+    &lt;system value="http://jpfhir.jp/fhir/Common/CodeSystem/JP_PhysicalExamCode_CS"/&gt;
     &lt;code value="detailed-physical-findings"/&gt;
     &lt;display value="Detailed Physical Findings"/&gt;
   &lt;/coding&gt;

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T14:36:41+00:00</t>
+    <t>2022-09-02T06:00:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1381,7 +1381,7 @@
 </t>
   </si>
   <si>
-    <t>Related measurements the observation is made from　observation がつくりゃれる元の関連する測定</t>
+    <t>Related measurements the observation is made from　observation が作られる元の関連する測定</t>
   </si>
   <si>
     <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="490">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T06:00:18+00:00</t>
+    <t>2022-09-14T09:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -296,7 +296,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -680,15 +680,6 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://jpfhir.jp/fhir/Common/CodeSystem/JP_PhysicalExamCode_CS"/&gt;
-    &lt;code value="physical-findings"/&gt;
-    &lt;display value="Physical Findings"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
     <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_PhysicalExamCode_VS</t>
   </si>
   <si>
@@ -708,6 +699,112 @@
   </si>
   <si>
     <t>116680003 |Is a|</t>
+  </si>
+  <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>physicalExamCode</t>
+  </si>
+  <si>
+    <t>身体所見項目コード。本ユースケースにおける項目コード推奨値をスライスにて示している。【詳細参照】</t>
+  </si>
+  <si>
+    <t>身体所見項目コード。本ユースケースにおける項目コード推奨値をスライスにて示している。</t>
+  </si>
+  <si>
+    <t>推奨項目コードは必須ではない、派生先によるコード体系を作成し割り振ることを否定しない</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://jpfhir.jp/fhir/Common/CodeSystem/JP_PhysicalExamCode_CS"/&gt;
+  &lt;code value="physical-findings"/&gt;
+  &lt;display value="Physical Findings"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>Observation.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -910,17 +1007,17 @@
 結果情報が単純な値である場合、observationを行った結果として決定された情報。</t>
   </si>
   <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](observation.html#notes) below.
-【JP Core仕様】コードに限定する</t>
+    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t>Codes specifying either Yes or No used in fields containing binary answers generally user-specified.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0136</t>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t xml:space="preserve">obs-7
@@ -937,6 +1034,15 @@
   </si>
   <si>
     <t>363714003 |Interprets|</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>所見の有無（Y or N）を指定する</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v2-0136</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -1044,11 +1150,10 @@
     <t>Observation.bodySite</t>
   </si>
   <si>
-    <t>Observed body part　観察された身体部位</t>
-  </si>
-  <si>
-    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).
-観察が行われた被験者の体の部位（すなわち、標的部位）を示す。</t>
+    <t>Bindingについてはユースケースに応じて各プロファイルで定義すること</t>
+  </si>
+  <si>
+    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
   </si>
   <si>
     <t>ICD-11</t>
@@ -1072,18 +1177,13 @@
     <t>Observation.method</t>
   </si>
   <si>
-    <t>How it was done　どのように実施されたか。</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to perform the observation.
-観測を実行するために使用されるメカニズムを示す。</t>
+    <t>Indicates the mechanism used to perform the observation.</t>
   </si>
   <si>
     <t>MEDIS症状・所見マスターの「診察方法」</t>
   </si>
   <si>
-    <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.
-場合によっては、観察（観測・検査）方法によっては結果に影響を与える可能性があるため、結果を比較できるかどうかを判断したり、結果の重要性を判断したりするために使用される。</t>
+    <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ObservationPhysicalExamMethod_VS</t>
@@ -1189,25 +1289,7 @@
     <t>Observation.referenceRange.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Observation.referenceRange.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Observation.referenceRange.modifierExtension</t>
@@ -1398,7 +1480,7 @@
     <t>Observation.component</t>
   </si>
   <si>
-    <t>Component results　　コンポーネント結果</t>
+    <t>所見有り（valueCodeableConceptがY）の場合に、具体的な所見をコード、または文字列で記載する</t>
   </si>
   <si>
     <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.
@@ -1441,24 +1523,34 @@
 【JP Core仕様】具体的な所見を表すコード（固定値）</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://jpfhir.jp/fhir/Common/CodeSystem/JP_PhysicalExamCode_CS"/&gt;
-    &lt;code value="detailed-physical-findings"/&gt;
-    &lt;display value="Detailed Physical Findings"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
     <t>&lt; 363787002 |Observable entity| OR  &lt; 386053000 |Evaluation procedure|</t>
   </si>
   <si>
+    <t>Observation.component.code.id</t>
+  </si>
+  <si>
+    <t>Observation.component.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://jpfhir.jp/fhir/Common/CodeSystem/JP_PhysicalExamCode_CS"/&gt;
+  &lt;code value="detailed-physical-findings"/&gt;
+  &lt;display value="Detailed Physical Findings"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>Observation.component.code.text</t>
+  </si>
+  <si>
     <t>Observation.component.value[x]</t>
   </si>
   <si>
-    <t>CodeableConcept
-string</t>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -1817,7 +1909,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO52"/>
+  <dimension ref="A1:AO63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1827,7 +1919,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.25390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1849,11 +1941,11 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="92.58984375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.70703125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="73.46484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
@@ -3799,7 +3891,7 @@
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="R17" t="s" s="2">
         <v>81</v>
@@ -3817,11 +3909,11 @@
         <v>81</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>81</v>
@@ -3854,27 +3946,27 @@
         <v>103</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>216</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3882,7 +3974,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>91</v>
@@ -3894,23 +3986,19 @@
         <v>81</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>222</v>
-      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>81</v>
       </c>
@@ -3958,7 +4046,7 @@
         <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>79</v>
@@ -3970,22 +4058,22 @@
         <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>223</v>
+        <v>81</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>224</v>
+        <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>81</v>
@@ -3993,11 +4081,11 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -4013,19 +4101,19 @@
         <v>81</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>228</v>
+        <v>137</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>231</v>
+        <v>140</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4063,19 +4151,19 @@
         <v>81</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>81</v>
+        <v>225</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>79</v>
@@ -4087,7 +4175,7 @@
         <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>81</v>
@@ -4096,13 +4184,13 @@
         <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>213</v>
+        <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>81</v>
@@ -4110,18 +4198,18 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>81</v>
@@ -4133,19 +4221,19 @@
         <v>92</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>81</v>
@@ -4182,16 +4270,14 @@
         <v>81</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>233</v>
@@ -4200,7 +4286,7 @@
         <v>79</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>81</v>
@@ -4209,19 +4295,19 @@
         <v>103</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>240</v>
+        <v>81</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>243</v>
+        <v>81</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>81</v>
@@ -4229,11 +4315,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="C21" t="s" s="2">
-        <v>245</v>
+        <v>81</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4252,19 +4340,19 @@
         <v>92</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>81</v>
@@ -4274,7 +4362,7 @@
         <v>81</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>81</v>
@@ -4313,13 +4401,13 @@
         <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>81</v>
@@ -4328,19 +4416,19 @@
         <v>103</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>254</v>
+        <v>81</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>81</v>
@@ -4348,7 +4436,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4371,18 +4459,20 @@
         <v>92</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>81</v>
       </c>
@@ -4430,7 +4520,7 @@
         <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>79</v>
@@ -4451,13 +4541,13 @@
         <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>262</v>
+        <v>81</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>81</v>
@@ -4465,7 +4555,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4473,10 +4563,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>81</v>
@@ -4488,19 +4578,19 @@
         <v>92</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>81</v>
@@ -4549,13 +4639,13 @@
         <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>81</v>
@@ -4564,19 +4654,19 @@
         <v>103</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>81</v>
@@ -4584,7 +4674,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4595,7 +4685,7 @@
         <v>79</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>81</v>
@@ -4607,20 +4697,18 @@
         <v>92</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>189</v>
+        <v>260</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>81</v>
       </c>
@@ -4644,13 +4732,13 @@
         <v>81</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>278</v>
+        <v>81</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>279</v>
+        <v>81</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>81</v>
@@ -4668,16 +4756,16 @@
         <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>280</v>
+        <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>103</v>
@@ -4686,28 +4774,28 @@
         <v>81</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>281</v>
+        <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>282</v>
+        <v>212</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>81</v>
+        <v>258</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>284</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>81</v>
+        <v>266</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4723,22 +4811,22 @@
         <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>189</v>
+        <v>267</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>81</v>
@@ -4763,13 +4851,13 @@
         <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>290</v>
+        <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>291</v>
+        <v>81</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>292</v>
+        <v>81</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>81</v>
@@ -4787,7 +4875,7 @@
         <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
@@ -4796,25 +4884,25 @@
         <v>91</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>293</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>81</v>
+        <v>272</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>134</v>
+        <v>273</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>81</v>
+        <v>275</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>81</v>
@@ -4822,18 +4910,18 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>81</v>
@@ -4842,22 +4930,22 @@
         <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>189</v>
+        <v>278</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>81</v>
@@ -4882,13 +4970,13 @@
         <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>290</v>
+        <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>302</v>
+        <v>81</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>81</v>
@@ -4906,13 +4994,13 @@
         <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>81</v>
@@ -4921,27 +5009,27 @@
         <v>103</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>81</v>
+        <v>283</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>303</v>
+        <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>306</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4952,7 +5040,7 @@
         <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>81</v>
@@ -4961,23 +5049,21 @@
         <v>81</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>81</v>
       </c>
@@ -5025,13 +5111,13 @@
         <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>81</v>
@@ -5046,13 +5132,13 @@
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>81</v>
+        <v>294</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>81</v>
@@ -5060,7 +5146,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5071,7 +5157,7 @@
         <v>79</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>81</v>
@@ -5080,21 +5166,23 @@
         <v>81</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>189</v>
+        <v>296</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>81</v>
       </c>
@@ -5118,11 +5206,13 @@
         <v>81</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="X28" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Y28" t="s" s="2">
-        <v>319</v>
+        <v>81</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>81</v>
@@ -5140,13 +5230,13 @@
         <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>81</v>
@@ -5155,27 +5245,27 @@
         <v>103</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>320</v>
+        <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>81</v>
+        <v>304</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>323</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5195,22 +5285,22 @@
         <v>81</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>189</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>81</v>
@@ -5235,29 +5325,29 @@
         <v>81</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="X29" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Y29" t="s" s="2">
-        <v>329</v>
+        <v>81</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="AB29" s="2"/>
       <c r="AC29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>81</v>
+        <v>311</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
@@ -5266,7 +5356,7 @@
         <v>91</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>81</v>
+        <v>312</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>103</v>
@@ -5275,26 +5365,28 @@
         <v>81</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>81</v>
+        <v>313</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>81</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="C30" t="s" s="2">
         <v>81</v>
       </c>
@@ -5312,21 +5404,23 @@
         <v>81</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>333</v>
+        <v>189</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>81</v>
       </c>
@@ -5350,13 +5444,11 @@
         <v>81</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>81</v>
+        <v>319</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>81</v>
@@ -5374,7 +5466,7 @@
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
@@ -5383,7 +5475,7 @@
         <v>91</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>81</v>
+        <v>312</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>103</v>
@@ -5392,24 +5484,24 @@
         <v>81</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>340</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5432,18 +5524,20 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>342</v>
+        <v>189</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>81</v>
       </c>
@@ -5467,13 +5561,13 @@
         <v>81</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>81</v>
+        <v>325</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>81</v>
+        <v>326</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>81</v>
+        <v>327</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>81</v>
@@ -5491,7 +5585,7 @@
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
@@ -5500,7 +5594,7 @@
         <v>91</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>81</v>
+        <v>328</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>103</v>
@@ -5509,28 +5603,28 @@
         <v>81</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>346</v>
+        <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>347</v>
+        <v>134</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>349</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>81</v>
+        <v>331</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5549,19 +5643,19 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>351</v>
+        <v>189</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>81</v>
@@ -5586,13 +5680,13 @@
         <v>81</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>81</v>
+        <v>325</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>81</v>
+        <v>336</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>81</v>
+        <v>337</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>81</v>
@@ -5610,7 +5704,7 @@
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
@@ -5622,30 +5716,30 @@
         <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>356</v>
+        <v>103</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>81</v>
+        <v>338</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>81</v>
+        <v>341</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5656,7 +5750,7 @@
         <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>81</v>
@@ -5668,16 +5762,20 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>93</v>
+        <v>343</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>81</v>
       </c>
@@ -5725,19 +5823,19 @@
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>81</v>
@@ -5746,10 +5844,10 @@
         <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>81</v>
+        <v>348</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -5760,18 +5858,18 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>81</v>
@@ -5783,16 +5881,16 @@
         <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>138</v>
+        <v>351</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>140</v>
+        <v>353</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5818,13 +5916,11 @@
         <v>81</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>81</v>
+        <v>354</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>81</v>
@@ -5842,77 +5938,77 @@
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>81</v>
+        <v>355</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>81</v>
+        <v>356</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>81</v>
+        <v>358</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>368</v>
+        <v>81</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>140</v>
+        <v>361</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>146</v>
+        <v>362</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>81</v>
@@ -5937,13 +6033,11 @@
         <v>81</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>81</v>
+        <v>363</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>81</v>
@@ -5961,19 +6055,19 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>81</v>
@@ -5982,10 +6076,10 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>81</v>
+        <v>364</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>134</v>
+        <v>365</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -5996,7 +6090,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6019,15 +6113,17 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>81</v>
@@ -6076,7 +6172,7 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6085,7 +6181,7 @@
         <v>91</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>376</v>
+        <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>103</v>
@@ -6094,24 +6190,24 @@
         <v>81</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>81</v>
+        <v>371</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>81</v>
+        <v>374</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6134,15 +6230,17 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>81</v>
@@ -6191,7 +6289,7 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6200,7 +6298,7 @@
         <v>91</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>376</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>103</v>
@@ -6209,10 +6307,10 @@
         <v>81</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>81</v>
+        <v>380</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>382</v>
@@ -6221,12 +6319,12 @@
         <v>81</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>81</v>
+        <v>383</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6237,7 +6335,7 @@
         <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>81</v>
@@ -6249,19 +6347,19 @@
         <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>189</v>
+        <v>385</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>81</v>
@@ -6286,13 +6384,13 @@
         <v>81</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>388</v>
+        <v>81</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>389</v>
+        <v>81</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>81</v>
@@ -6310,31 +6408,31 @@
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>103</v>
+        <v>390</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>390</v>
+        <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>391</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>305</v>
+        <v>392</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6345,7 +6443,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6356,7 +6454,7 @@
         <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>81</v>
@@ -6368,20 +6466,16 @@
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>393</v>
+        <v>218</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>81</v>
       </c>
@@ -6405,13 +6499,13 @@
         <v>81</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>397</v>
+        <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>398</v>
+        <v>81</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>399</v>
+        <v>81</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>81</v>
@@ -6429,31 +6523,31 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>392</v>
+        <v>220</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>390</v>
+        <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>391</v>
+        <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>305</v>
+        <v>221</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6464,18 +6558,18 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>81</v>
@@ -6487,18 +6581,18 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>401</v>
+        <v>137</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>402</v>
+        <v>138</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>81</v>
       </c>
@@ -6546,19 +6640,19 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>400</v>
+        <v>226</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>81</v>
@@ -6570,7 +6664,7 @@
         <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>405</v>
+        <v>221</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6581,39 +6675,43 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>81</v>
       </c>
@@ -6661,19 +6759,19 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>81</v>
@@ -6682,10 +6780,10 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>377</v>
+        <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>409</v>
+        <v>134</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6696,7 +6794,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6707,7 +6805,7 @@
         <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>81</v>
@@ -6716,20 +6814,18 @@
         <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>81</v>
@@ -6778,16 +6874,16 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>81</v>
+        <v>404</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>103</v>
@@ -6799,10 +6895,10 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6813,7 +6909,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6824,7 +6920,7 @@
         <v>79</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>81</v>
@@ -6833,20 +6929,18 @@
         <v>81</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>81</v>
@@ -6895,16 +6989,16 @@
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>81</v>
+        <v>404</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>103</v>
@@ -6916,10 +7010,10 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -6930,7 +7024,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6941,7 +7035,7 @@
         <v>79</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>81</v>
@@ -6950,22 +7044,22 @@
         <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>351</v>
+        <v>189</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>81</v>
@@ -6990,13 +7084,13 @@
         <v>81</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>81</v>
+        <v>416</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>81</v>
+        <v>417</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>81</v>
@@ -7014,13 +7108,13 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>81</v>
@@ -7032,13 +7126,13 @@
         <v>81</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>81</v>
+        <v>418</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>429</v>
+        <v>340</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7049,7 +7143,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7060,7 +7154,7 @@
         <v>79</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>81</v>
@@ -7072,16 +7166,20 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>360</v>
+        <v>421</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>81</v>
       </c>
@@ -7105,13 +7203,13 @@
         <v>81</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>81</v>
+        <v>425</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>81</v>
+        <v>426</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>81</v>
+        <v>427</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>81</v>
@@ -7129,31 +7227,31 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>362</v>
+        <v>420</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>81</v>
+        <v>418</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>81</v>
+        <v>419</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7164,18 +7262,18 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>81</v>
@@ -7187,18 +7285,18 @@
         <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>137</v>
+        <v>429</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>138</v>
+        <v>430</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>81</v>
       </c>
@@ -7246,19 +7344,19 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>366</v>
+        <v>428</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>81</v>
@@ -7270,7 +7368,7 @@
         <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>363</v>
+        <v>433</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7281,43 +7379,39 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>368</v>
+        <v>81</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>369</v>
+        <v>435</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>81</v>
       </c>
@@ -7365,19 +7459,19 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>371</v>
+        <v>434</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>81</v>
@@ -7386,10 +7480,10 @@
         <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>81</v>
+        <v>405</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>134</v>
+        <v>437</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
@@ -7400,7 +7494,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7408,10 +7502,10 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>81</v>
@@ -7423,26 +7517,24 @@
         <v>92</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>189</v>
+        <v>439</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>437</v>
+        <v>81</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>81</v>
@@ -7460,11 +7552,13 @@
         <v>81</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X48" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Y48" t="s" s="2">
-        <v>210</v>
+        <v>81</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>81</v>
@@ -7482,13 +7576,13 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>81</v>
@@ -7500,16 +7594,16 @@
         <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>438</v>
+        <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>213</v>
+        <v>443</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>214</v>
+        <v>444</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>215</v>
+        <v>81</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>81</v>
@@ -7517,7 +7611,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7528,7 +7622,7 @@
         <v>79</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>81</v>
@@ -7540,20 +7634,18 @@
         <v>92</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>81</v>
       </c>
@@ -7601,13 +7693,13 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>81</v>
@@ -7619,24 +7711,24 @@
         <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>444</v>
+        <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>282</v>
+        <v>443</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>283</v>
+        <v>450</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>284</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7647,7 +7739,7 @@
         <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>81</v>
@@ -7656,22 +7748,22 @@
         <v>81</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>189</v>
+        <v>385</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>289</v>
+        <v>455</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>81</v>
@@ -7696,13 +7788,13 @@
         <v>81</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>290</v>
+        <v>81</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>291</v>
+        <v>81</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>292</v>
+        <v>81</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>81</v>
@@ -7720,16 +7812,16 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>293</v>
+        <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>103</v>
@@ -7741,10 +7833,10 @@
         <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>134</v>
+        <v>456</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>294</v>
+        <v>457</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
@@ -7755,18 +7847,18 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>81</v>
@@ -7778,20 +7870,16 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>297</v>
+        <v>218</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>81</v>
       </c>
@@ -7815,13 +7903,13 @@
         <v>81</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>290</v>
+        <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>302</v>
+        <v>81</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>81</v>
@@ -7839,46 +7927,46 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>449</v>
+        <v>220</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>303</v>
+        <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>304</v>
+        <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>305</v>
+        <v>221</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>306</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7897,20 +7985,18 @@
         <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>454</v>
+        <v>138</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>455</v>
+        <v>223</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>81</v>
       </c>
@@ -7958,7 +8044,7 @@
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>453</v>
+        <v>226</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
@@ -7970,24 +8056,1325 @@
         <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="X54" s="2"/>
+      <c r="Y54" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI54" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO52" t="s" s="2">
+      <c r="AJ54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AB57" s="2"/>
+      <c r="AC57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO63" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:35:02+00:00</t>
+    <t>2022-09-16T11:30:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="489">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T11:30:59+00:00</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -680,7 +680,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_PhysicalExamCode_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_PhysicalExamCode_VS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -777,7 +777,7 @@
   </si>
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="http://jpfhir.jp/fhir/Common/CodeSystem/JP_PhysicalExamCode_CS"/&gt;
+  &lt;system value="http://jpfhir.jp/fhir/core/CodeSystem/JP_PhysicalExamCode_CS"/&gt;
   &lt;code value="physical-findings"/&gt;
   &lt;display value="Physical Findings"/&gt;
 &lt;/valueCoding&gt;</t>
@@ -848,7 +848,7 @@
 </t>
   </si>
   <si>
-    <t>What the observation is about, when it is not about the subject of record　subject 要素が実際のobservationの対象でない場合に、observation の対象物。</t>
+    <t>What the observation is about, when it is not about the subject of record　subject 要素が実際のobservationの対象でない場合に、observation の対象物</t>
   </si>
   <si>
     <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.
@@ -877,7 +877,7 @@
   </si>
   <si>
     <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.
-このobservationが行われるヘルスケアイベント（患者とヘルスケアプロバイダーの相互作用など）（受診、入院など）。</t>
+このobservationが行われるヘルスケアイベント（患者とヘルスケアプロバイダの相互作用など）（受診、入院など）。</t>
   </si>
   <si>
     <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).
@@ -1000,6 +1000,10 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
+  </si>
+  <si>
     <t>Actual result　実際の結果値</t>
   </si>
   <si>
@@ -1015,9 +1019,6 @@
   <si>
     <t xml:space="preserve">type:$this}
 </t>
-  </si>
-  <si>
-    <t>closed</t>
   </si>
   <si>
     <t xml:space="preserve">obs-7
@@ -1159,7 +1160,7 @@
     <t>ICD-11</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ObservationPhysicalExamBodySite_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ObservationPhysicalExamBodySite_VS</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1186,7 +1187,7 @@
     <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ObservationPhysicalExamMethod_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ObservationPhysicalExamMethod_VS</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1537,7 +1538,7 @@
   </si>
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="http://jpfhir.jp/fhir/Common/CodeSystem/JP_PhysicalExamCode_CS"/&gt;
+  &lt;system value="http://jpfhir.jp/fhir/core/CodeSystem/JP_PhysicalExamCode_CS"/&gt;
   &lt;code value="detailed-physical-findings"/&gt;
   &lt;display value="Detailed Physical Findings"/&gt;
 &lt;/valueCoding&gt;</t>
@@ -1547,10 +1548,6 @@
   </si>
   <si>
     <t>Observation.component.value[x]</t>
-  </si>
-  <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -1928,7 +1925,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="122.34375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="121.2421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1942,7 +1939,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="73.46484375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.21875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -5288,19 +5285,19 @@
         <v>92</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>189</v>
+        <v>306</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>81</v>
@@ -5337,14 +5334,14 @@
         <v>81</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AB29" s="2"/>
       <c r="AC29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>311</v>
+        <v>197</v>
       </c>
       <c r="AE29" t="s" s="2">
         <v>305</v>
@@ -5413,13 +5410,13 @@
         <v>318</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>81</v>
@@ -8927,19 +8924,19 @@
         <v>92</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="M60" t="s" s="2">
-        <v>475</v>
-      </c>
       <c r="N60" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>81</v>
@@ -9006,7 +9003,7 @@
         <v>81</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>314</v>
@@ -9023,7 +9020,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9049,13 +9046,13 @@
         <v>189</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="N61" t="s" s="2">
         <v>324</v>
@@ -9107,7 +9104,7 @@
         <v>81</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>79</v>
@@ -9142,7 +9139,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9171,13 +9168,13 @@
         <v>332</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>81</v>
@@ -9226,7 +9223,7 @@
         <v>81</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
@@ -9261,7 +9258,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9287,16 +9284,16 @@
         <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>81</v>
@@ -9345,7 +9342,7 @@
         <v>81</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -90,6 +90,9 @@
     <t>Copyright</t>
   </si>
   <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+  </si>
+  <si>
     <t>FHIR Version</t>
   </si>
   <si>
@@ -269,10 +272,6 @@
   </si>
   <si>
     <t>身体所見に関するObservation（検査測定や観察事実）の制約プロフィール</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1848,55 +1847,55 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1960,226 +1959,226 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="R2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AF2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="R2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE2" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG2" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AH2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>86</v>
@@ -2194,10 +2193,10 @@
         <v>89</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
@@ -2206,20 +2205,20 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>92</v>
@@ -2238,83 +2237,83 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
@@ -2323,20 +2322,20 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>92</v>
@@ -2353,83 +2352,83 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
@@ -2438,17 +2437,17 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>92</v>
@@ -2470,83 +2469,83 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
@@ -2555,23 +2554,23 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>111</v>
@@ -2587,26 +2586,26 @@
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W6" t="s" s="2">
         <v>115</v>
@@ -2618,52 +2617,52 @@
         <v>117</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>118</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -2676,19 +2675,19 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>121</v>
@@ -2704,83 +2703,83 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>125</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>126</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2792,19 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>129</v>
@@ -2821,83 +2820,83 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>133</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>134</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
@@ -2910,19 +2909,19 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>137</v>
@@ -2938,83 +2937,83 @@
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>141</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>142</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>134</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
@@ -3027,19 +3026,19 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>137</v>
@@ -3057,83 +3056,83 @@
         <v>146</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>147</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>142</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>134</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
@@ -3142,20 +3141,20 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>92</v>
@@ -3174,62 +3173,62 @@
         <v>152</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>148</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>103</v>
@@ -3238,7 +3237,7 @@
         <v>153</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>154</v>
@@ -3250,7 +3249,7 @@
         <v>156</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
@@ -3263,16 +3262,16 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>92</v>
@@ -3291,62 +3290,62 @@
         <v>162</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>157</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>103</v>
@@ -3355,7 +3354,7 @@
         <v>163</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>164</v>
@@ -3364,10 +3363,10 @@
         <v>165</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
@@ -3380,16 +3379,16 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>92</v>
@@ -3408,62 +3407,62 @@
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>166</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>103</v>
@@ -3472,7 +3471,7 @@
         <v>172</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>173</v>
@@ -3481,10 +3480,10 @@
         <v>174</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
@@ -3493,7 +3492,7 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3503,7 +3502,7 @@
         <v>91</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>92</v>
@@ -3527,26 +3526,26 @@
         <v>179</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W14" t="s" s="2">
         <v>180</v>
@@ -3558,19 +3557,19 @@
         <v>182</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>175</v>
@@ -3582,7 +3581,7 @@
         <v>91</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>103</v>
@@ -3603,7 +3602,7 @@
         <v>187</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
@@ -3612,23 +3611,23 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>91</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>189</v>
@@ -3646,26 +3645,26 @@
         <v>193</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W15" t="s" s="2">
         <v>115</v>
@@ -3677,14 +3676,14 @@
         <v>195</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>196</v>
       </c>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>197</v>
@@ -3693,25 +3692,25 @@
         <v>188</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>198</v>
@@ -3720,7 +3719,7 @@
         <v>199</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
@@ -3731,7 +3730,7 @@
         <v>200</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3741,13 +3740,13 @@
         <v>91</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>189</v>
@@ -3765,26 +3764,26 @@
         <v>193</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R16" t="s" s="2">
         <v>202</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W16" t="s" s="2">
         <v>115</v>
@@ -3796,43 +3795,43 @@
         <v>195</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>188</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>198</v>
@@ -3841,7 +3840,7 @@
         <v>199</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
@@ -3860,10 +3859,10 @@
         <v>91</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>92</v>
@@ -3884,26 +3883,26 @@
         <v>208</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W17" t="s" s="2">
         <v>115</v>
@@ -3913,19 +3912,19 @@
         <v>209</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>203</v>
@@ -3937,7 +3936,7 @@
         <v>91</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>103</v>
@@ -3967,23 +3966,23 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>217</v>
@@ -3997,83 +3996,83 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>220</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>221</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
@@ -4086,19 +4085,19 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>137</v>
@@ -4114,38 +4113,38 @@
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>224</v>
@@ -4154,7 +4153,7 @@
         <v>225</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>197</v>
@@ -4163,34 +4162,34 @@
         <v>226</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>142</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>221</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
@@ -4199,20 +4198,20 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>92</v>
@@ -4233,45 +4232,45 @@
         <v>232</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>196</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>197</v>
@@ -4280,22 +4279,22 @@
         <v>233</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>234</v>
@@ -4304,10 +4303,10 @@
         <v>235</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21">
@@ -4318,20 +4317,20 @@
         <v>236</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>92</v>
@@ -4352,71 +4351,71 @@
         <v>232</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>240</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>233</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>234</v>
@@ -4425,10 +4424,10 @@
         <v>235</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22">
@@ -4437,20 +4436,20 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>92</v>
@@ -4471,71 +4470,71 @@
         <v>245</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>246</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>247</v>
@@ -4544,10 +4543,10 @@
         <v>248</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
@@ -4556,7 +4555,7 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4566,10 +4565,10 @@
         <v>91</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>92</v>
@@ -4590,62 +4589,62 @@
         <v>254</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>249</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>103</v>
@@ -4654,7 +4653,7 @@
         <v>255</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>256</v>
@@ -4666,7 +4665,7 @@
         <v>258</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24">
@@ -4675,20 +4674,20 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>92</v>
@@ -4707,71 +4706,71 @@
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE24" t="s" s="2">
         <v>259</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>212</v>
@@ -4783,7 +4782,7 @@
         <v>258</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
@@ -4796,16 +4795,16 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>92</v>
@@ -4826,62 +4825,62 @@
         <v>271</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE25" t="s" s="2">
         <v>265</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>103</v>
@@ -4890,7 +4889,7 @@
         <v>272</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>273</v>
@@ -4902,7 +4901,7 @@
         <v>275</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26">
@@ -4915,16 +4914,16 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>92</v>
@@ -4945,62 +4944,62 @@
         <v>282</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>276</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>103</v>
@@ -5009,7 +5008,7 @@
         <v>283</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>284</v>
@@ -5021,7 +5020,7 @@
         <v>286</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27">
@@ -5030,20 +5029,20 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>92</v>
@@ -5062,71 +5061,71 @@
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE27" t="s" s="2">
         <v>287</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>292</v>
@@ -5138,7 +5137,7 @@
         <v>294</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28">
@@ -5147,20 +5146,20 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>92</v>
@@ -5181,62 +5180,62 @@
         <v>300</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE28" t="s" s="2">
         <v>295</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>103</v>
@@ -5245,7 +5244,7 @@
         <v>301</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>302</v>
@@ -5257,7 +5256,7 @@
         <v>304</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29">
@@ -5266,20 +5265,20 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>92</v>
@@ -5300,45 +5299,45 @@
         <v>310</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>311</v>
       </c>
       <c r="AB29" s="2"/>
       <c r="AC29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>197</v>
@@ -5347,7 +5346,7 @@
         <v>305</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>91</v>
@@ -5359,7 +5358,7 @@
         <v>103</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>313</v>
@@ -5371,7 +5370,7 @@
         <v>315</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>316</v>
@@ -5385,20 +5384,20 @@
         <v>317</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>92</v>
@@ -5419,26 +5418,26 @@
         <v>310</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W30" t="s" s="2">
         <v>115</v>
@@ -5448,25 +5447,25 @@
         <v>319</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE30" t="s" s="2">
         <v>305</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>91</v>
@@ -5478,7 +5477,7 @@
         <v>103</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>313</v>
@@ -5490,7 +5489,7 @@
         <v>315</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>316</v>
@@ -5502,23 +5501,23 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>189</v>
@@ -5536,26 +5535,26 @@
         <v>324</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W31" t="s" s="2">
         <v>325</v>
@@ -5567,25 +5566,25 @@
         <v>327</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE31" t="s" s="2">
         <v>320</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>91</v>
@@ -5597,10 +5596,10 @@
         <v>103</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>134</v>
@@ -5609,10 +5608,10 @@
         <v>329</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32">
@@ -5625,19 +5624,19 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>189</v>
@@ -5655,26 +5654,26 @@
         <v>335</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W32" t="s" s="2">
         <v>325</v>
@@ -5686,37 +5685,37 @@
         <v>337</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>330</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>338</v>
@@ -5728,7 +5727,7 @@
         <v>340</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>341</v>
@@ -5740,23 +5739,23 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>343</v>
@@ -5774,71 +5773,71 @@
         <v>347</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>342</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>348</v>
@@ -5847,10 +5846,10 @@
         <v>349</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34">
@@ -5859,23 +5858,23 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>189</v>
@@ -5891,26 +5890,26 @@
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W34" t="s" s="2">
         <v>115</v>
@@ -5920,37 +5919,37 @@
         <v>354</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE34" t="s" s="2">
         <v>350</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>355</v>
@@ -5962,7 +5961,7 @@
         <v>357</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>358</v>
@@ -5974,23 +5973,23 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>189</v>
@@ -6008,26 +6007,26 @@
         <v>362</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W35" t="s" s="2">
         <v>115</v>
@@ -6037,40 +6036,40 @@
         <v>363</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE35" t="s" s="2">
         <v>359</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>364</v>
@@ -6079,10 +6078,10 @@
         <v>365</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36">
@@ -6091,23 +6090,23 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>367</v>
@@ -6123,68 +6122,68 @@
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE36" t="s" s="2">
         <v>366</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>371</v>
@@ -6196,7 +6195,7 @@
         <v>373</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>374</v>
@@ -6208,23 +6207,23 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>376</v>
@@ -6240,68 +6239,68 @@
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE37" t="s" s="2">
         <v>375</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>380</v>
@@ -6313,7 +6312,7 @@
         <v>382</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>383</v>
@@ -6325,23 +6324,23 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>385</v>
@@ -6359,71 +6358,71 @@
         <v>389</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE38" t="s" s="2">
         <v>384</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>390</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>391</v>
@@ -6432,10 +6431,10 @@
         <v>392</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39">
@@ -6444,23 +6443,23 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>217</v>
@@ -6474,83 +6473,83 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE39" t="s" s="2">
         <v>220</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>221</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40">
@@ -6563,19 +6562,19 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>137</v>
@@ -6591,83 +6590,83 @@
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE40" t="s" s="2">
         <v>226</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>142</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>221</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41">
@@ -6680,13 +6679,13 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>92</v>
@@ -6710,83 +6709,83 @@
         <v>146</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE41" t="s" s="2">
         <v>399</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>142</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>134</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42">
@@ -6795,23 +6794,23 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>401</v>
@@ -6825,56 +6824,56 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>400</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>91</v>
@@ -6886,10 +6885,10 @@
         <v>103</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>405</v>
@@ -6898,10 +6897,10 @@
         <v>406</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43">
@@ -6910,23 +6909,23 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>401</v>
@@ -6940,56 +6939,56 @@
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE43" t="s" s="2">
         <v>407</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>91</v>
@@ -7001,10 +7000,10 @@
         <v>103</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>405</v>
@@ -7013,10 +7012,10 @@
         <v>410</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44">
@@ -7025,23 +7024,23 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>189</v>
@@ -7059,26 +7058,26 @@
         <v>415</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W44" t="s" s="2">
         <v>115</v>
@@ -7090,37 +7089,37 @@
         <v>417</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE44" t="s" s="2">
         <v>411</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>418</v>
@@ -7132,10 +7131,10 @@
         <v>340</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45">
@@ -7144,23 +7143,23 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>189</v>
@@ -7178,26 +7177,26 @@
         <v>424</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W45" t="s" s="2">
         <v>425</v>
@@ -7209,37 +7208,37 @@
         <v>427</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE45" t="s" s="2">
         <v>420</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>418</v>
@@ -7251,10 +7250,10 @@
         <v>340</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46">
@@ -7263,23 +7262,23 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>429</v>
@@ -7295,83 +7294,83 @@
         <v>432</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE46" t="s" s="2">
         <v>428</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>433</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47">
@@ -7380,23 +7379,23 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>217</v>
@@ -7410,71 +7409,71 @@
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE47" t="s" s="2">
         <v>434</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>405</v>
@@ -7483,10 +7482,10 @@
         <v>437</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48">
@@ -7495,20 +7494,20 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>92</v>
@@ -7527,71 +7526,71 @@
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE48" t="s" s="2">
         <v>438</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>443</v>
@@ -7600,10 +7599,10 @@
         <v>444</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49">
@@ -7612,20 +7611,20 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>92</v>
@@ -7644,71 +7643,71 @@
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE49" t="s" s="2">
         <v>445</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>443</v>
@@ -7717,10 +7716,10 @@
         <v>450</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50">
@@ -7729,20 +7728,20 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>92</v>
@@ -7763,71 +7762,71 @@
         <v>455</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE50" t="s" s="2">
         <v>451</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>456</v>
@@ -7836,10 +7835,10 @@
         <v>457</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51">
@@ -7848,23 +7847,23 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>217</v>
@@ -7878,83 +7877,83 @@
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE51" t="s" s="2">
         <v>220</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>221</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52">
@@ -7967,19 +7966,19 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>137</v>
@@ -7995,83 +7994,83 @@
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE52" t="s" s="2">
         <v>226</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>142</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>221</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53">
@@ -8084,13 +8083,13 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>92</v>
@@ -8114,83 +8113,83 @@
         <v>146</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE53" t="s" s="2">
         <v>399</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>142</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>134</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54">
@@ -8199,7 +8198,7 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8209,10 +8208,10 @@
         <v>91</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>92</v>
@@ -8233,26 +8232,26 @@
         <v>208</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W54" t="s" s="2">
         <v>115</v>
@@ -8262,19 +8261,19 @@
         <v>209</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE54" t="s" s="2">
         <v>461</v>
@@ -8286,13 +8285,13 @@
         <v>91</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>465</v>
@@ -8307,7 +8306,7 @@
         <v>214</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55">
@@ -8316,23 +8315,23 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>217</v>
@@ -8346,83 +8345,83 @@
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE55" t="s" s="2">
         <v>220</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>221</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56">
@@ -8435,19 +8434,19 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>137</v>
@@ -8463,38 +8462,38 @@
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>224</v>
@@ -8503,7 +8502,7 @@
         <v>225</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>197</v>
@@ -8512,34 +8511,34 @@
         <v>226</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>142</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>221</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57">
@@ -8548,20 +8547,20 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>92</v>
@@ -8582,45 +8581,45 @@
         <v>232</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>196</v>
       </c>
       <c r="AB57" s="2"/>
       <c r="AC57" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>197</v>
@@ -8629,22 +8628,22 @@
         <v>233</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>234</v>
@@ -8653,10 +8652,10 @@
         <v>235</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58">
@@ -8667,20 +8666,20 @@
         <v>236</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>92</v>
@@ -8701,71 +8700,71 @@
         <v>232</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R58" t="s" s="2">
         <v>469</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE58" t="s" s="2">
         <v>233</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>234</v>
@@ -8774,10 +8773,10 @@
         <v>235</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59">
@@ -8786,20 +8785,20 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>92</v>
@@ -8820,71 +8819,71 @@
         <v>245</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R59" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U59" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE59" t="s" s="2">
         <v>246</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>247</v>
@@ -8893,10 +8892,10 @@
         <v>248</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60">
@@ -8905,20 +8904,20 @@
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>92</v>
@@ -8939,68 +8938,68 @@
         <v>310</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R60" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE60" t="s" s="2">
         <v>471</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>475</v>
@@ -9012,7 +9011,7 @@
         <v>315</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>316</v>
@@ -9024,23 +9023,23 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>189</v>
@@ -9058,26 +9057,26 @@
         <v>324</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R61" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U61" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V61" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W61" t="s" s="2">
         <v>325</v>
@@ -9089,25 +9088,25 @@
         <v>327</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE61" t="s" s="2">
         <v>476</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>91</v>
@@ -9119,10 +9118,10 @@
         <v>103</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>134</v>
@@ -9131,10 +9130,10 @@
         <v>329</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62">
@@ -9147,19 +9146,19 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>189</v>
@@ -9177,26 +9176,26 @@
         <v>483</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R62" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U62" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V62" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W62" t="s" s="2">
         <v>325</v>
@@ -9208,37 +9207,37 @@
         <v>337</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE62" t="s" s="2">
         <v>480</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>338</v>
@@ -9250,7 +9249,7 @@
         <v>340</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>341</v>
@@ -9262,26 +9261,26 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>485</v>
@@ -9296,71 +9295,71 @@
         <v>488</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R63" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T63" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U63" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V63" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE63" t="s" s="2">
         <v>484</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>391</v>
@@ -9369,10 +9368,10 @@
         <v>392</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>
